--- a/outputs/SORs/SOR Testing_IPS Industrial Components Division.xlsx
+++ b/outputs/SORs/SOR Testing_IPS Industrial Components Division.xlsx
@@ -48,7 +48,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -664,22 +664,22 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>0.0101</v>
+        <v>0.01</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>0.0099</v>
+        <v>0.0098</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>0.019</v>
+        <v>0.0189</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>0.0393</v>
+        <v>0.0389</v>
       </c>
       <c r="K2" s="1" t="n">
         <v>0.0093</v>
@@ -688,37 +688,37 @@
         <v>0.0093</v>
       </c>
       <c r="M2" s="1" t="n">
+        <v>0.0093</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>0.0279</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="P2" s="1" t="n">
         <v>0.0094</v>
       </c>
-      <c r="N2" s="1" t="n">
-        <v>0.0281</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>0.0192</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>0.0095</v>
-      </c>
       <c r="Q2" s="1" t="n">
-        <v>0.0288</v>
+        <v>0.0286</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0.0575</v>
+        <v>0.057</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>0.0196</v>
+        <v>0.0194</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>0.0417</v>
+        <v>0.0412</v>
       </c>
       <c r="U2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="V2" s="1" t="n">
-        <v>0.0614</v>
+        <v>0.0608</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>0.1852</v>
+        <v>0.1834</v>
       </c>
     </row>
     <row r="3">
@@ -735,22 +735,22 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0.00909</v>
+        <v>0.009</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0.00891</v>
+        <v>0.00882</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.0171</v>
+        <v>0.01701</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0.03537</v>
+        <v>0.03501</v>
       </c>
       <c r="K3" s="1" t="n">
         <v>0.00837</v>
@@ -759,37 +759,37 @@
         <v>0.00837</v>
       </c>
       <c r="M3" s="1" t="n">
+        <v>0.00837</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>0.02511</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>0.0171</v>
+      </c>
+      <c r="P3" s="1" t="n">
         <v>0.00846</v>
       </c>
-      <c r="N3" s="1" t="n">
-        <v>0.02529</v>
-      </c>
-      <c r="O3" s="1" t="n">
-        <v>0.01728</v>
-      </c>
-      <c r="P3" s="1" t="n">
-        <v>0.00855</v>
-      </c>
       <c r="Q3" s="1" t="n">
-        <v>0.02592</v>
+        <v>0.02574</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0.05175</v>
+        <v>0.0513</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>0.01764</v>
+        <v>0.01746</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>0.03753</v>
+        <v>0.03708</v>
       </c>
       <c r="U3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>0.05526</v>
+        <v>0.05472</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>0.16668</v>
+        <v>0.16506</v>
       </c>
     </row>
     <row r="4">
@@ -806,7 +806,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1072,7 +1072,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1143,7 +1143,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1214,7 +1214,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1693,7 +1693,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1764,7 +1764,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1835,7 +1835,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="12" t="n">
-        <v>0.0217</v>
+        <v>0.0213</v>
       </c>
       <c r="I2" s="12" t="n">
-        <v>0.0465</v>
+        <v>0.0455</v>
       </c>
       <c r="J2" s="12" t="n">
-        <v>0.0667</v>
+        <v>0.0652</v>
       </c>
       <c r="K2" s="12" t="n">
         <v>0</v>
@@ -2343,7 +2343,7 @@
         <v>0.0462</v>
       </c>
       <c r="W2" s="12" t="n">
-        <v>0.2032</v>
+        <v>0.2018</v>
       </c>
     </row>
     <row r="3">
@@ -2369,13 +2369,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="12" t="n">
-        <v>0.01953</v>
+        <v>0.01917</v>
       </c>
       <c r="I3" s="12" t="n">
-        <v>0.04185</v>
+        <v>0.04095</v>
       </c>
       <c r="J3" s="12" t="n">
-        <v>0.06003</v>
+        <v>0.05868</v>
       </c>
       <c r="K3" s="12" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0.04158</v>
       </c>
       <c r="W3" s="12" t="n">
-        <v>0.18288</v>
+        <v>0.18162</v>
       </c>
     </row>
     <row r="4">
@@ -2785,7 +2785,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2836,7 +2838,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3483,7 +3487,9 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="15" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -3534,7 +3540,9 @@
       <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="15" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -3701,7 +3709,7 @@
         <v>0.0389</v>
       </c>
       <c r="O2" s="16" t="n">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="P2" s="16" t="n">
         <v>0.0385</v>
@@ -3710,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="16" t="n">
-        <v>0.0375</v>
+        <v>0.0749</v>
       </c>
       <c r="S2" s="16" t="n">
         <v>0</v>
@@ -3725,7 +3733,7 @@
         <v>0.0375</v>
       </c>
       <c r="W2" s="16" t="n">
-        <v>0.1527</v>
+        <v>0.1908</v>
       </c>
     </row>
     <row r="3">
@@ -3772,7 +3780,7 @@
         <v>0.03501</v>
       </c>
       <c r="O3" s="16" t="n">
-        <v>0</v>
+        <v>0.0333</v>
       </c>
       <c r="P3" s="16" t="n">
         <v>0.03465</v>
@@ -3781,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="16" t="n">
-        <v>0.03375</v>
+        <v>0.06741</v>
       </c>
       <c r="S3" s="16" t="n">
         <v>0</v>
@@ -3796,7 +3804,7 @@
         <v>0.03375</v>
       </c>
       <c r="W3" s="16" t="n">
-        <v>0.13743</v>
+        <v>0.17172</v>
       </c>
     </row>
     <row r="4">
@@ -3996,7 +4004,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="16" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4067,7 +4075,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="16" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4138,7 +4146,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -4805,7 +4813,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="18" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -4866,7 +4874,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="18" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -4927,7 +4935,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="18" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -5095,38 +5103,38 @@
         <v>0</v>
       </c>
       <c r="I2" s="19" t="n">
+        <v>0.0417</v>
+      </c>
+      <c r="J2" s="19" t="n">
+        <v>0.0429</v>
+      </c>
+      <c r="K2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="19" t="n">
         <v>0.04</v>
       </c>
-      <c r="J2" s="19" t="n">
-        <v>0.0412</v>
-      </c>
-      <c r="K2" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="19" t="n">
-        <v>0.0385</v>
-      </c>
       <c r="T2" s="19" t="n">
         <v>0</v>
       </c>
@@ -5134,10 +5142,10 @@
         <v>0</v>
       </c>
       <c r="V2" s="19" t="n">
-        <v>0.0385</v>
+        <v>0.04</v>
       </c>
       <c r="W2" s="19" t="n">
-        <v>0.0787</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="3">
@@ -5166,38 +5174,38 @@
         <v>0</v>
       </c>
       <c r="I3" s="19" t="n">
+        <v>0.03753</v>
+      </c>
+      <c r="J3" s="19" t="n">
+        <v>0.03861</v>
+      </c>
+      <c r="K3" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="19" t="n">
         <v>0.036</v>
       </c>
-      <c r="J3" s="19" t="n">
-        <v>0.03708</v>
-      </c>
-      <c r="K3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="19" t="n">
-        <v>0.03465</v>
-      </c>
       <c r="T3" s="19" t="n">
         <v>0</v>
       </c>
@@ -5205,10 +5213,10 @@
         <v>0</v>
       </c>
       <c r="V3" s="19" t="n">
-        <v>0.03465</v>
+        <v>0.036</v>
       </c>
       <c r="W3" s="19" t="n">
-        <v>0.07083</v>
+        <v>0.0738</v>
       </c>
     </row>
     <row r="4">
@@ -5475,7 +5483,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="19" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -5546,7 +5554,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="19" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -5617,7 +5625,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="19" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -5986,7 +5994,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -6045,7 +6053,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -6104,7 +6112,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -6471,7 +6479,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="20" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -6542,7 +6550,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="20" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -6613,7 +6621,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="20" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -7066,7 +7074,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="22" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -7125,7 +7135,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="22" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -7561,7 +7573,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="23" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
@@ -8042,7 +8054,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -8113,7 +8125,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -8184,7 +8196,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -8340,7 +8352,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -8411,7 +8423,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -8482,7 +8494,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -8736,7 +8748,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -8807,7 +8819,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -8878,7 +8890,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -9365,7 +9377,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -9436,7 +9448,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -9507,7 +9519,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -9876,7 +9888,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -9947,7 +9959,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -10018,7 +10030,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -10596,55 +10608,55 @@
         <v>27</v>
       </c>
       <c r="G2" s="8" t="n">
-        <v>0.0233</v>
+        <v>0.0235</v>
       </c>
       <c r="H2" s="8" t="n">
-        <v>0.0115</v>
+        <v>0.0116</v>
       </c>
       <c r="I2" s="8" t="n">
-        <v>0.0115</v>
+        <v>0.0116</v>
       </c>
       <c r="J2" s="8" t="n">
-        <v>0.0461</v>
+        <v>0.0467</v>
       </c>
       <c r="K2" s="8" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="L2" s="8" t="n">
+        <v>0.0357</v>
+      </c>
+      <c r="M2" s="8" t="n">
         <v>0.0118</v>
       </c>
-      <c r="L2" s="8" t="n">
+      <c r="N2" s="8" t="n">
+        <v>0.0593</v>
+      </c>
+      <c r="O2" s="8" t="n">
         <v>0.0353</v>
       </c>
-      <c r="M2" s="8" t="n">
-        <v>0.0116</v>
-      </c>
-      <c r="N2" s="8" t="n">
-        <v>0.0586</v>
-      </c>
-      <c r="O2" s="8" t="n">
-        <v>0.0349</v>
-      </c>
       <c r="P2" s="8" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="Q2" s="8" t="n">
         <v>0.0118</v>
       </c>
-      <c r="Q2" s="8" t="n">
-        <v>0.0116</v>
-      </c>
       <c r="R2" s="8" t="n">
-        <v>0.0583</v>
+        <v>0.059</v>
       </c>
       <c r="S2" s="8" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="8" t="n">
-        <v>0.0253</v>
+        <v>0.0256</v>
       </c>
       <c r="U2" s="8" t="n">
-        <v>0.0128</v>
+        <v>0.013</v>
       </c>
       <c r="V2" s="8" t="n">
-        <v>0.037</v>
+        <v>0.0375</v>
       </c>
       <c r="W2" s="8" t="n">
-        <v>0.2007</v>
+        <v>0.2031</v>
       </c>
     </row>
     <row r="3">
@@ -10667,55 +10679,55 @@
         <v>28</v>
       </c>
       <c r="G3" s="8" t="n">
-        <v>0.02097</v>
+        <v>0.02115</v>
       </c>
       <c r="H3" s="8" t="n">
-        <v>0.01035</v>
+        <v>0.01044</v>
       </c>
       <c r="I3" s="8" t="n">
-        <v>0.01035</v>
+        <v>0.01044</v>
       </c>
       <c r="J3" s="8" t="n">
-        <v>0.04149</v>
+        <v>0.04203</v>
       </c>
       <c r="K3" s="8" t="n">
+        <v>0.01071</v>
+      </c>
+      <c r="L3" s="8" t="n">
+        <v>0.03213</v>
+      </c>
+      <c r="M3" s="8" t="n">
         <v>0.01062</v>
       </c>
-      <c r="L3" s="8" t="n">
+      <c r="N3" s="8" t="n">
+        <v>0.05337</v>
+      </c>
+      <c r="O3" s="8" t="n">
         <v>0.03177</v>
       </c>
-      <c r="M3" s="8" t="n">
-        <v>0.01044</v>
-      </c>
-      <c r="N3" s="8" t="n">
-        <v>0.05274</v>
-      </c>
-      <c r="O3" s="8" t="n">
-        <v>0.03141</v>
-      </c>
       <c r="P3" s="8" t="n">
+        <v>0.01071</v>
+      </c>
+      <c r="Q3" s="8" t="n">
         <v>0.01062</v>
       </c>
-      <c r="Q3" s="8" t="n">
-        <v>0.01044</v>
-      </c>
       <c r="R3" s="8" t="n">
-        <v>0.05247</v>
+        <v>0.0531</v>
       </c>
       <c r="S3" s="8" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="8" t="n">
-        <v>0.02277</v>
+        <v>0.02304</v>
       </c>
       <c r="U3" s="8" t="n">
-        <v>0.01152</v>
+        <v>0.0117</v>
       </c>
       <c r="V3" s="8" t="n">
-        <v>0.0333</v>
+        <v>0.03375</v>
       </c>
       <c r="W3" s="8" t="n">
-        <v>0.18063</v>
+        <v>0.18279</v>
       </c>
     </row>
     <row r="4">
@@ -11008,7 +11020,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -11079,7 +11091,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="8" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -11150,7 +11162,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>

--- a/outputs/SORs/SOR Testing_IPS Industrial Components Division.xlsx
+++ b/outputs/SORs/SOR Testing_IPS Industrial Components Division.xlsx
@@ -827,40 +827,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.033</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -877,7 +877,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -934,7 +934,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1005,7 +1005,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1022,40 +1022,40 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="n">
-        <v>0.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -1072,7 +1072,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1143,7 +1143,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1214,7 +1214,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1223,19 +1223,19 @@
         <v>0.0234</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>0.0583</v>
+        <v>0.0586</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>0.0542</v>
+        <v>0.0543</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>0.1369</v>
+        <v>0.1372</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>0.0457</v>
+        <v>0.0518</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>0</v>
+        <v>0.0411</v>
       </c>
       <c r="M10" s="1" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1764,7 +1764,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1835,7 +1835,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="10" t="n">
-        <v>0</v>
+        <v>0.0833</v>
       </c>
       <c r="M9" s="10" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="12" t="n">
-        <v>0</v>
+        <v>0.0698</v>
       </c>
       <c r="M4" s="12" t="n">
         <v>0</v>
@@ -2650,9 +2650,7 @@
       <c r="K7" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="12" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="L7" s="12"/>
       <c r="M7" s="12" t="n">
         <v>0.5</v>
       </c>
@@ -3105,77 +3103,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -3488,7 +3415,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -3541,7 +3468,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -4004,7 +3931,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="16" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4075,7 +4002,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="16" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4146,7 +4073,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -4167,40 +4094,40 @@
         <v>0</v>
       </c>
       <c r="L9" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M9" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N9" s="16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O9" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P9" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R9" s="16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S9" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T9" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U9" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V9" s="16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W9" s="16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4810,13 +4737,13 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="18" t="n">
-        <v>0.0639</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -4824,40 +4751,40 @@
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
       <c r="L5" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="18" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="N5" s="18" t="n">
-        <v>0.4444</v>
+        <v>1</v>
       </c>
       <c r="O5" s="18" t="n">
-        <v>0.1667</v>
+        <v>1</v>
       </c>
       <c r="P5" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="18" t="n">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="S5" s="18" t="n">
-        <v>0.1429</v>
+        <v>1</v>
       </c>
       <c r="T5" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="18" t="n">
-        <v>0.1429</v>
+        <v>1</v>
       </c>
       <c r="W5" s="18" t="n">
-        <v>0.5882</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -4874,10 +4801,10 @@
         <v>31</v>
       </c>
       <c r="E6" s="18" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
@@ -4888,13 +4815,13 @@
         <v>0</v>
       </c>
       <c r="M6" s="18" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="N6" s="18" t="n">
-        <v>0.39996</v>
+        <v>0.4444</v>
       </c>
       <c r="O6" s="18" t="n">
-        <v>0.15003</v>
+        <v>0.1667</v>
       </c>
       <c r="P6" s="18" t="n">
         <v>0</v>
@@ -4903,10 +4830,10 @@
         <v>0</v>
       </c>
       <c r="R6" s="18" t="n">
-        <v>0.1125</v>
+        <v>0.125</v>
       </c>
       <c r="S6" s="18" t="n">
-        <v>0.12861</v>
+        <v>0.1429</v>
       </c>
       <c r="T6" s="18" t="n">
         <v>0</v>
@@ -4915,10 +4842,10 @@
         <v>0</v>
       </c>
       <c r="V6" s="18" t="n">
-        <v>0.12861</v>
+        <v>0.1429</v>
       </c>
       <c r="W6" s="18" t="n">
-        <v>0.52938</v>
+        <v>0.5882</v>
       </c>
     </row>
     <row r="7">
@@ -4935,60 +4862,121 @@
         <v>31</v>
       </c>
       <c r="E7" s="18" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="18" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="N7" s="18" t="n">
+        <v>0.39996</v>
+      </c>
+      <c r="O7" s="18" t="n">
+        <v>0.15003</v>
+      </c>
+      <c r="P7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="18" t="n">
+        <v>0.1125</v>
+      </c>
+      <c r="S7" s="18" t="n">
+        <v>0.12861</v>
+      </c>
+      <c r="T7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="18" t="n">
+        <v>0.12861</v>
+      </c>
+      <c r="W7" s="18" t="n">
+        <v>0.52938</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="18" t="n">
+        <v>0.0776</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="18" t="n">
-        <v>0.0156</v>
-      </c>
-      <c r="J7" s="18" t="n">
-        <v>0.0163</v>
-      </c>
-      <c r="K7" s="18" t="n">
-        <v>0.0441</v>
-      </c>
-      <c r="L7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="18" t="n">
+      <c r="G8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="18" t="n">
+        <v>0.0159</v>
+      </c>
+      <c r="J8" s="18" t="n">
+        <v>0.0168</v>
+      </c>
+      <c r="K8" s="18" t="n">
+        <v>0.0448</v>
+      </c>
+      <c r="L8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5432,9 +5420,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="19"/>
-      <c r="L7" s="19" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="19"/>
       <c r="M7" s="19" t="n">
         <v>1</v>
       </c>
@@ -5483,7 +5469,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="19" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -5554,7 +5540,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="19" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -5625,7 +5611,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="19" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -5646,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="19" t="n">
-        <v>0</v>
+        <v>0.0233</v>
       </c>
       <c r="M10" s="19" t="n">
         <v>0</v>
@@ -5994,7 +5980,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -6053,7 +6039,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -6096,75 +6082,6 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2" t="n">
         <v>1.45161</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0.0639</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6479,7 +6396,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="20" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -6550,7 +6467,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="20" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -6621,7 +6538,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="20" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -7573,7 +7490,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="23" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
@@ -8054,7 +7971,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -8125,7 +8042,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -8196,7 +8113,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -8217,40 +8134,40 @@
         <v>0.0058</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0058</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U9" s="3" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V9" s="3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W9" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8515,40 +8432,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -8697,9 +8614,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="4"/>
-      <c r="L7" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="4"/>
       <c r="M7" s="4" t="n">
         <v>1</v>
       </c>
@@ -8748,7 +8663,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -8819,7 +8734,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -8890,25 +8805,25 @@
         <v>31</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="4" t="n">
+        <v>0.0154</v>
+      </c>
+      <c r="H10" s="4" t="n">
         <v>0.0231</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="I10" s="4" t="n">
         <v>0.0233</v>
       </c>
-      <c r="I10" s="4" t="n">
-        <v>0.0234</v>
-      </c>
       <c r="J10" s="4" t="n">
-        <v>0.0698</v>
+        <v>0.0617</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>0.0159</v>
+        <v>0.0157</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
@@ -9377,7 +9292,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -9448,7 +9363,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -9519,7 +9434,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -9888,7 +9803,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -9959,7 +9874,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -10030,7 +9945,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -10349,7 +10264,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>0</v>
+        <v>0.1765</v>
       </c>
       <c r="M4" s="7" t="n">
         <v>0</v>
@@ -10756,13 +10671,13 @@
         <v>0</v>
       </c>
       <c r="I4" s="8" t="n">
-        <v>0.026</v>
+        <v>0.0256</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>0.0256</v>
+        <v>0.0253</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>0.013</v>
+        <v>0.0128</v>
       </c>
       <c r="L4" s="8" t="n">
         <v>0</v>
@@ -10969,9 +10884,7 @@
       <c r="K7" s="8" t="n">
         <v>0.5</v>
       </c>
-      <c r="L7" s="8" t="n">
-        <v>0.333333333333333</v>
-      </c>
+      <c r="L7" s="8"/>
       <c r="M7" s="8" t="n">
         <v>0.333333333333333</v>
       </c>
@@ -11020,7 +10933,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -11091,7 +11004,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="8" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -11162,28 +11075,28 @@
         <v>31</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="8" t="n">
-        <v>0.0241</v>
+        <v>0.0242</v>
       </c>
       <c r="H10" s="8" t="n">
         <v>0.004</v>
       </c>
       <c r="I10" s="8" t="n">
-        <v>0.0168</v>
+        <v>0.0169</v>
       </c>
       <c r="J10" s="8" t="n">
-        <v>0.0442</v>
+        <v>0.0444</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>0.0111</v>
+        <v>0.0112</v>
       </c>
       <c r="L10" s="8" t="n">
-        <v>0</v>
+        <v>0.0054</v>
       </c>
       <c r="M10" s="8" t="n">
         <v>0</v>
@@ -11478,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="9" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="L4" s="9" t="n">
         <v>0</v>

--- a/outputs/SORs/SOR Testing_IPS Industrial Components Division.xlsx
+++ b/outputs/SORs/SOR Testing_IPS Industrial Components Division.xlsx
@@ -664,7 +664,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0</v>
+        <v>0.0642</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -735,7 +735,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0</v>
+        <v>0.0642</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -806,7 +806,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0</v>
+        <v>0.0642</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -830,37 +830,37 @@
         <v>0.033</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0</v>
+        <v>0.0128416666666667</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0</v>
+        <v>0.038525</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0</v>
+        <v>0.0128416666666667</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0</v>
+        <v>0.0128416666666667</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0</v>
+        <v>0.0128416666666667</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>0.038525</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0</v>
+        <v>0.0128416666666667</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0</v>
+        <v>0.0128416666666667</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0</v>
+        <v>0.0128416666666667</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0</v>
+        <v>0.038525</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0</v>
+        <v>0.1541</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.2302</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1143,7 +1143,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.2302</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1214,7 +1214,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.2302</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1238,37 +1238,37 @@
         <v>0.0411</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>0</v>
+        <v>0.0460416666666667</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>0</v>
+        <v>0.138125</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>0</v>
+        <v>0.0460416666666667</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>0</v>
+        <v>0.0460416666666667</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>0</v>
+        <v>0.0460416666666667</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>0.138125</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0</v>
+        <v>0.0460416666666667</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0</v>
+        <v>0.0460416666666667</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0</v>
+        <v>0.0460416666666667</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0</v>
+        <v>0.138125</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0</v>
+        <v>0.5525</v>
       </c>
     </row>
   </sheetData>
@@ -1693,7 +1693,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>0.0776</v>
+        <v>0.0847</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1764,7 +1764,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>0.0776</v>
+        <v>0.0847</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1835,7 +1835,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>0.0776</v>
+        <v>0.0847</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -1859,37 +1859,37 @@
         <v>0.0833</v>
       </c>
       <c r="M9" s="10" t="n">
-        <v>0</v>
+        <v>0.0169416666666667</v>
       </c>
       <c r="N9" s="10" t="n">
-        <v>0</v>
+        <v>0.050825</v>
       </c>
       <c r="O9" s="10" t="n">
-        <v>0</v>
+        <v>0.0169416666666667</v>
       </c>
       <c r="P9" s="10" t="n">
-        <v>0</v>
+        <v>0.0169416666666667</v>
       </c>
       <c r="Q9" s="10" t="n">
-        <v>0</v>
+        <v>0.0169416666666667</v>
       </c>
       <c r="R9" s="10" t="n">
-        <v>0</v>
+        <v>0.050825</v>
       </c>
       <c r="S9" s="10" t="n">
-        <v>0</v>
+        <v>0.0169416666666667</v>
       </c>
       <c r="T9" s="10" t="n">
-        <v>0</v>
+        <v>0.0169416666666667</v>
       </c>
       <c r="U9" s="10" t="n">
-        <v>0</v>
+        <v>0.0169416666666667</v>
       </c>
       <c r="V9" s="10" t="n">
-        <v>0</v>
+        <v>0.050825</v>
       </c>
       <c r="W9" s="10" t="n">
-        <v>0</v>
+        <v>0.2033</v>
       </c>
     </row>
   </sheetData>
@@ -2289,7 +2289,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>0</v>
+        <v>0.1121</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2360,7 +2360,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0</v>
+        <v>0.1121</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2431,7 +2431,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0</v>
+        <v>0.1121</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2455,37 +2455,37 @@
         <v>0.0698</v>
       </c>
       <c r="M4" s="12" t="n">
-        <v>0</v>
+        <v>0.0224166666666667</v>
       </c>
       <c r="N4" s="12" t="n">
-        <v>0</v>
+        <v>0.06725</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0</v>
+        <v>0.0224166666666667</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0</v>
+        <v>0.0224166666666667</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0</v>
+        <v>0.0224166666666667</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0</v>
+        <v>0.06725</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0</v>
+        <v>0.0224166666666667</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0</v>
+        <v>0.0224166666666667</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0</v>
+        <v>0.0224166666666667</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0</v>
+        <v>0.06725</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>0</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="5">
@@ -2783,9 +2783,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="13" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="13"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2836,9 +2834,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="13" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="13"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2974,9 +2970,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="14"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3045,9 +3039,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="14"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3414,9 +3406,7 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="15" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="15"/>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -3467,9 +3457,7 @@
       <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="15" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E6" s="15"/>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -3931,7 +3919,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="16" t="n">
-        <v>0.0776</v>
+        <v>0.0103</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4002,7 +3990,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="16" t="n">
-        <v>0.0776</v>
+        <v>0.0103</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4073,7 +4061,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>0.0776</v>
+        <v>0.0103</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -4097,37 +4085,37 @@
         <v>0</v>
       </c>
       <c r="M9" s="16" t="n">
-        <v>0</v>
+        <v>0.00205833333333333</v>
       </c>
       <c r="N9" s="16" t="n">
-        <v>0</v>
+        <v>0.006175</v>
       </c>
       <c r="O9" s="16" t="n">
-        <v>0</v>
+        <v>0.00205833333333333</v>
       </c>
       <c r="P9" s="16" t="n">
-        <v>0</v>
+        <v>0.00205833333333333</v>
       </c>
       <c r="Q9" s="16" t="n">
-        <v>0</v>
+        <v>0.00205833333333333</v>
       </c>
       <c r="R9" s="16" t="n">
-        <v>0</v>
+        <v>0.006175</v>
       </c>
       <c r="S9" s="16" t="n">
-        <v>0</v>
+        <v>0.00205833333333333</v>
       </c>
       <c r="T9" s="16" t="n">
-        <v>0</v>
+        <v>0.00205833333333333</v>
       </c>
       <c r="U9" s="16" t="n">
-        <v>0</v>
+        <v>0.00205833333333333</v>
       </c>
       <c r="V9" s="16" t="n">
-        <v>0</v>
+        <v>0.006175</v>
       </c>
       <c r="W9" s="16" t="n">
-        <v>0</v>
+        <v>0.0247</v>
       </c>
     </row>
   </sheetData>
@@ -4801,7 +4789,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="18" t="n">
-        <v>0.0776</v>
+        <v>0.0639</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -4862,7 +4850,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="18" t="n">
-        <v>0.0776</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -4923,7 +4911,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="18" t="n">
-        <v>0.0776</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -4947,37 +4935,37 @@
         <v>0</v>
       </c>
       <c r="M8" s="18" t="n">
-        <v>0</v>
+        <v>0.0127833333333333</v>
       </c>
       <c r="N8" s="18" t="n">
-        <v>0</v>
+        <v>0.03835</v>
       </c>
       <c r="O8" s="18" t="n">
-        <v>0</v>
+        <v>0.0127833333333333</v>
       </c>
       <c r="P8" s="18" t="n">
-        <v>0</v>
+        <v>0.0127833333333333</v>
       </c>
       <c r="Q8" s="18" t="n">
-        <v>0</v>
+        <v>0.0127833333333333</v>
       </c>
       <c r="R8" s="18" t="n">
-        <v>0</v>
+        <v>0.03835</v>
       </c>
       <c r="S8" s="18" t="n">
-        <v>0</v>
+        <v>0.0127833333333333</v>
       </c>
       <c r="T8" s="18" t="n">
-        <v>0</v>
+        <v>0.0127833333333333</v>
       </c>
       <c r="U8" s="18" t="n">
-        <v>0</v>
+        <v>0.0127833333333333</v>
       </c>
       <c r="V8" s="18" t="n">
-        <v>0</v>
+        <v>0.03835</v>
       </c>
       <c r="W8" s="18" t="n">
-        <v>0</v>
+        <v>0.1534</v>
       </c>
     </row>
   </sheetData>
@@ -5079,7 +5067,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="19" t="n">
-        <v>0</v>
+        <v>0.0379</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5150,7 +5138,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="19" t="n">
-        <v>0</v>
+        <v>0.0379</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5221,7 +5209,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="19" t="n">
-        <v>0</v>
+        <v>0.0379</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5245,37 +5233,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="19" t="n">
-        <v>0</v>
+        <v>0.00758333333333333</v>
       </c>
       <c r="N4" s="19" t="n">
-        <v>0</v>
+        <v>0.02275</v>
       </c>
       <c r="O4" s="19" t="n">
-        <v>0</v>
+        <v>0.00758333333333333</v>
       </c>
       <c r="P4" s="19" t="n">
-        <v>0</v>
+        <v>0.00758333333333333</v>
       </c>
       <c r="Q4" s="19" t="n">
-        <v>0</v>
+        <v>0.00758333333333333</v>
       </c>
       <c r="R4" s="19" t="n">
-        <v>0</v>
+        <v>0.02275</v>
       </c>
       <c r="S4" s="19" t="n">
-        <v>0</v>
+        <v>0.00758333333333333</v>
       </c>
       <c r="T4" s="19" t="n">
-        <v>0</v>
+        <v>0.00758333333333333</v>
       </c>
       <c r="U4" s="19" t="n">
-        <v>0</v>
+        <v>0.00758333333333333</v>
       </c>
       <c r="V4" s="19" t="n">
-        <v>0</v>
+        <v>0.02275</v>
       </c>
       <c r="W4" s="19" t="n">
-        <v>0</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="5">
@@ -5469,7 +5457,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="19" t="n">
-        <v>0.0776</v>
+        <v>0.0233</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -5540,7 +5528,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="19" t="n">
-        <v>0.0776</v>
+        <v>0.0233</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -5611,7 +5599,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="19" t="n">
-        <v>0.0776</v>
+        <v>0.0233</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -5635,37 +5623,37 @@
         <v>0.0233</v>
       </c>
       <c r="M10" s="19" t="n">
-        <v>0</v>
+        <v>0.00465833333333333</v>
       </c>
       <c r="N10" s="19" t="n">
-        <v>0</v>
+        <v>0.013975</v>
       </c>
       <c r="O10" s="19" t="n">
-        <v>0</v>
+        <v>0.00465833333333333</v>
       </c>
       <c r="P10" s="19" t="n">
-        <v>0</v>
+        <v>0.00465833333333333</v>
       </c>
       <c r="Q10" s="19" t="n">
-        <v>0</v>
+        <v>0.00465833333333333</v>
       </c>
       <c r="R10" s="19" t="n">
-        <v>0</v>
+        <v>0.013975</v>
       </c>
       <c r="S10" s="19" t="n">
-        <v>0</v>
+        <v>0.00465833333333333</v>
       </c>
       <c r="T10" s="19" t="n">
-        <v>0</v>
+        <v>0.00465833333333333</v>
       </c>
       <c r="U10" s="19" t="n">
-        <v>0</v>
+        <v>0.00465833333333333</v>
       </c>
       <c r="V10" s="19" t="n">
-        <v>0</v>
+        <v>0.013975</v>
       </c>
       <c r="W10" s="19" t="n">
-        <v>0</v>
+        <v>0.0559</v>
       </c>
     </row>
   </sheetData>
@@ -5979,9 +5967,7 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -6038,9 +6024,7 @@
       <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="2" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -6396,7 +6380,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="20" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -6467,7 +6451,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="20" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -6538,7 +6522,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="20" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -6991,9 +6975,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="22" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="22"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -7052,9 +7034,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="22" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="22"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -7490,7 +7470,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="23" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
@@ -7971,7 +7951,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.0776</v>
+        <v>0.0232</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -8042,7 +8022,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.0776</v>
+        <v>0.0232</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -8113,7 +8093,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.0776</v>
+        <v>0.0232</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -8137,37 +8117,37 @@
         <v>0.0058</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>0</v>
+        <v>0.00464166666666667</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>0</v>
+        <v>0.013925</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>0</v>
+        <v>0.00464166666666667</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>0</v>
+        <v>0.00464166666666667</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>0</v>
+        <v>0.00464166666666667</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>0</v>
+        <v>0.013925</v>
       </c>
       <c r="S9" s="3" t="n">
-        <v>0</v>
+        <v>0.00464166666666667</v>
       </c>
       <c r="T9" s="3" t="n">
-        <v>0</v>
+        <v>0.00464166666666667</v>
       </c>
       <c r="U9" s="3" t="n">
-        <v>0</v>
+        <v>0.00464166666666667</v>
       </c>
       <c r="V9" s="3" t="n">
-        <v>0</v>
+        <v>0.013925</v>
       </c>
       <c r="W9" s="3" t="n">
-        <v>0</v>
+        <v>0.0557</v>
       </c>
     </row>
   </sheetData>
@@ -8269,7 +8249,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>0.0286</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -8340,7 +8320,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>0.0286</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -8411,7 +8391,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>0.0286</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -8435,37 +8415,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>0.00571666666666667</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>0.01715</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>0.00571666666666667</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>0.00571666666666667</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>0.00571666666666667</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.01715</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.00571666666666667</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>0.00571666666666667</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>0.00571666666666667</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>0.01715</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>0.0686</v>
       </c>
     </row>
     <row r="5">
@@ -8663,7 +8643,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.0776</v>
+        <v>0.078</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -8734,7 +8714,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.0776</v>
+        <v>0.078</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -8805,7 +8785,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0.0776</v>
+        <v>0.078</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -8829,37 +8809,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>0</v>
+        <v>0.0156</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>0</v>
+        <v>0.0468</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>0</v>
+        <v>0.0156</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>0</v>
+        <v>0.0156</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0</v>
+        <v>0.0156</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0</v>
+        <v>0.0468</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0</v>
+        <v>0.0156</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>0</v>
+        <v>0.0156</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>0</v>
+        <v>0.0156</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>0</v>
+        <v>0.0468</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>0</v>
+        <v>0.1872</v>
       </c>
     </row>
   </sheetData>
@@ -9292,7 +9272,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -9363,7 +9343,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -9434,7 +9414,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -9803,7 +9783,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -9874,7 +9854,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -9945,7 +9925,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -10101,7 +10081,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0</v>
+        <v>0.1546</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -10172,7 +10152,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0</v>
+        <v>0.1546</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -10243,7 +10223,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0</v>
+        <v>0.1546</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -10267,37 +10247,37 @@
         <v>0.1765</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0</v>
+        <v>0.0309166666666667</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0</v>
+        <v>0.09275</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0</v>
+        <v>0.0309166666666667</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0</v>
+        <v>0.0309166666666667</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0</v>
+        <v>0.0309166666666667</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0</v>
+        <v>0.09275</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0</v>
+        <v>0.0309166666666667</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0</v>
+        <v>0.0309166666666667</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0</v>
+        <v>0.0309166666666667</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0</v>
+        <v>0.09275</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="5">
@@ -10517,7 +10497,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0</v>
+        <v>0.0382</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -10588,7 +10568,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0</v>
+        <v>0.0382</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -10659,7 +10639,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0</v>
+        <v>0.0382</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -10683,37 +10663,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="8" t="n">
-        <v>0</v>
+        <v>0.00764166666666667</v>
       </c>
       <c r="N4" s="8" t="n">
-        <v>0</v>
+        <v>0.022925</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0</v>
+        <v>0.00764166666666667</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0</v>
+        <v>0.00764166666666667</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0</v>
+        <v>0.00764166666666667</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0</v>
+        <v>0.022925</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0</v>
+        <v>0.00764166666666667</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0</v>
+        <v>0.00764166666666667</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0</v>
+        <v>0.00764166666666667</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0</v>
+        <v>0.022925</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0</v>
+        <v>0.0917</v>
       </c>
     </row>
     <row r="5">
@@ -10933,7 +10913,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>0.0776</v>
+        <v>0.0601</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -11004,7 +10984,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="8" t="n">
-        <v>0.0776</v>
+        <v>0.0601</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -11075,7 +11055,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>0.0776</v>
+        <v>0.0601</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -11099,37 +11079,37 @@
         <v>0.0054</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0</v>
+        <v>0.0120166666666667</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0</v>
+        <v>0.03605</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0</v>
+        <v>0.0120166666666667</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>0</v>
+        <v>0.0120166666666667</v>
       </c>
       <c r="Q10" s="8" t="n">
-        <v>0</v>
+        <v>0.0120166666666667</v>
       </c>
       <c r="R10" s="8" t="n">
-        <v>0</v>
+        <v>0.03605</v>
       </c>
       <c r="S10" s="8" t="n">
-        <v>0</v>
+        <v>0.0120166666666667</v>
       </c>
       <c r="T10" s="8" t="n">
-        <v>0</v>
+        <v>0.0120166666666667</v>
       </c>
       <c r="U10" s="8" t="n">
-        <v>0</v>
+        <v>0.0120166666666667</v>
       </c>
       <c r="V10" s="8" t="n">
-        <v>0</v>
+        <v>0.03605</v>
       </c>
       <c r="W10" s="8" t="n">
-        <v>0</v>
+        <v>0.1442</v>
       </c>
     </row>
   </sheetData>
@@ -11231,7 +11211,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>0</v>
+        <v>0.3571</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11302,7 +11282,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0</v>
+        <v>0.3571</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11373,7 +11353,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0</v>
+        <v>0.3571</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11397,37 +11377,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="9" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>0</v>
+        <v>0.21425</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0</v>
+        <v>0.21425</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0</v>
+        <v>0.0714166666666667</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0</v>
+        <v>0.21425</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>0</v>
+        <v>0.857</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_IPS Industrial Components Division.xlsx
+++ b/outputs/SORs/SOR Testing_IPS Industrial Components Division.xlsx
@@ -664,7 +664,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.0642</v>
+        <v>0.087</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -735,7 +735,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.0642</v>
+        <v>0.087</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -806,61 +806,61 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.0642</v>
+        <v>0.087</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0.0105</v>
+        <v>0.0106</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0.0213</v>
+        <v>0.0215</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0.0318</v>
+        <v>0.0322</v>
       </c>
       <c r="K4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>0.033</v>
+        <v>0.0333</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0.0128416666666667</v>
+        <v>0.0222</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0.038525</v>
+        <v>0.0551</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.0128416666666667</v>
+        <v>0.0145</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.0128416666666667</v>
+        <v>0.0145</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.0128416666666667</v>
+        <v>0.0145</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.038525</v>
+        <v>0.0435</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.0128416666666667</v>
+        <v>0.0145</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.0128416666666667</v>
+        <v>0.0145</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.0128416666666667</v>
+        <v>0.0145</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.038525</v>
+        <v>0.0435</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0.1541</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="5">
@@ -877,7 +877,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -934,7 +934,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1005,7 +1005,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1025,37 +1025,37 @@
         <v>0</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
@@ -1072,7 +1072,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.2302</v>
+        <v>0.2564</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1143,7 +1143,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.2302</v>
+        <v>0.2564</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1214,61 +1214,61 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.2302</v>
+        <v>0.2564</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0.0234</v>
+        <v>0.0233</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>0.0586</v>
+        <v>0.0585</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>0.0543</v>
+        <v>0.0542</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>0.1372</v>
+        <v>0.1369</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>0.0518</v>
+        <v>0.0516</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>0.0411</v>
+        <v>0.0409</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>0.0460416666666667</v>
+        <v>0.0266</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>0.138125</v>
+        <v>0.1195</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>0.0460416666666667</v>
+        <v>0.0427333333333333</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>0.0460416666666667</v>
+        <v>0.0427333333333333</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>0.0460416666666667</v>
+        <v>0.0427333333333333</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0.138125</v>
+        <v>0.1282</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0.0460416666666667</v>
+        <v>0.0427333333333333</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0.0460416666666667</v>
+        <v>0.0427333333333333</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.0460416666666667</v>
+        <v>0.0427333333333333</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.138125</v>
+        <v>0.1282</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0.5525</v>
+        <v>0.5128</v>
       </c>
     </row>
   </sheetData>
@@ -1693,7 +1693,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>0.0847</v>
+        <v>0.0855</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1764,7 +1764,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>0.0847</v>
+        <v>0.0855</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1835,7 +1835,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>0.0847</v>
+        <v>0.0855</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -1859,37 +1859,37 @@
         <v>0.0833</v>
       </c>
       <c r="M9" s="10" t="n">
-        <v>0.0169416666666667</v>
+        <v>0</v>
       </c>
       <c r="N9" s="10" t="n">
-        <v>0.050825</v>
+        <v>0.0855</v>
       </c>
       <c r="O9" s="10" t="n">
-        <v>0.0169416666666667</v>
+        <v>0.01425</v>
       </c>
       <c r="P9" s="10" t="n">
-        <v>0.0169416666666667</v>
+        <v>0.01425</v>
       </c>
       <c r="Q9" s="10" t="n">
-        <v>0.0169416666666667</v>
+        <v>0.01425</v>
       </c>
       <c r="R9" s="10" t="n">
-        <v>0.050825</v>
+        <v>0.04275</v>
       </c>
       <c r="S9" s="10" t="n">
-        <v>0.0169416666666667</v>
+        <v>0.01425</v>
       </c>
       <c r="T9" s="10" t="n">
-        <v>0.0169416666666667</v>
+        <v>0.01425</v>
       </c>
       <c r="U9" s="10" t="n">
-        <v>0.0169416666666667</v>
+        <v>0.01425</v>
       </c>
       <c r="V9" s="10" t="n">
-        <v>0.050825</v>
+        <v>0.04275</v>
       </c>
       <c r="W9" s="10" t="n">
-        <v>0.2033</v>
+        <v>0.171</v>
       </c>
     </row>
   </sheetData>
@@ -2289,7 +2289,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>0.1121</v>
+        <v>0.1124</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2360,7 +2360,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0.1121</v>
+        <v>0.1124</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2431,7 +2431,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0.1121</v>
+        <v>0.1124</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2455,37 +2455,37 @@
         <v>0.0698</v>
       </c>
       <c r="M4" s="12" t="n">
-        <v>0.0224166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="12" t="n">
-        <v>0.06725</v>
+        <v>0.0677</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0.0224166666666667</v>
+        <v>0.0187333333333333</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0.0224166666666667</v>
+        <v>0.0187333333333333</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0.0224166666666667</v>
+        <v>0.0187333333333333</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0.06725</v>
+        <v>0.0562</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0.0224166666666667</v>
+        <v>0.0187333333333333</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0.0224166666666667</v>
+        <v>0.0187333333333333</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0.0224166666666667</v>
+        <v>0.0187333333333333</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0.06725</v>
+        <v>0.0562</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>0.269</v>
+        <v>0.2248</v>
       </c>
     </row>
     <row r="5">
@@ -2502,7 +2502,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="12" t="n">
-        <v>0.5</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -2561,7 +2561,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="12" t="n">
-        <v>0.5</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -2632,7 +2632,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="12" t="n">
-        <v>0.5</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -2652,37 +2652,37 @@
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N7" s="12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O7" s="12" t="n">
-        <v>0.5</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="P7" s="12" t="n">
-        <v>0.5</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="Q7" s="12" t="n">
-        <v>0.5</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="R7" s="12" t="n">
-        <v>0.5</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="S7" s="12" t="n">
-        <v>0.5</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="T7" s="12" t="n">
-        <v>0.5</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="U7" s="12" t="n">
-        <v>0.5</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="V7" s="12" t="n">
-        <v>0.5</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="W7" s="12" t="n">
-        <v>0.5</v>
+        <v>0.428571428571429</v>
       </c>
     </row>
   </sheetData>
@@ -3919,7 +3919,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="16" t="n">
-        <v>0.0103</v>
+        <v>0.0102</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -3990,7 +3990,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="16" t="n">
-        <v>0.0103</v>
+        <v>0.0102</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4061,7 +4061,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>0.0103</v>
+        <v>0.0102</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -4085,37 +4085,37 @@
         <v>0</v>
       </c>
       <c r="M9" s="16" t="n">
-        <v>0.00205833333333333</v>
+        <v>0</v>
       </c>
       <c r="N9" s="16" t="n">
-        <v>0.006175</v>
+        <v>0</v>
       </c>
       <c r="O9" s="16" t="n">
-        <v>0.00205833333333333</v>
+        <v>0.0017</v>
       </c>
       <c r="P9" s="16" t="n">
-        <v>0.00205833333333333</v>
+        <v>0.0017</v>
       </c>
       <c r="Q9" s="16" t="n">
-        <v>0.00205833333333333</v>
+        <v>0.0017</v>
       </c>
       <c r="R9" s="16" t="n">
-        <v>0.006175</v>
+        <v>0.0051</v>
       </c>
       <c r="S9" s="16" t="n">
-        <v>0.00205833333333333</v>
+        <v>0.0017</v>
       </c>
       <c r="T9" s="16" t="n">
-        <v>0.00205833333333333</v>
+        <v>0.0017</v>
       </c>
       <c r="U9" s="16" t="n">
-        <v>0.00205833333333333</v>
+        <v>0.0017</v>
       </c>
       <c r="V9" s="16" t="n">
-        <v>0.006175</v>
+        <v>0.0051</v>
       </c>
       <c r="W9" s="16" t="n">
-        <v>0.0247</v>
+        <v>0.0204</v>
       </c>
     </row>
   </sheetData>
@@ -4741,9 +4741,7 @@
       <c r="L5" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="18" t="n">
-        <v>1</v>
-      </c>
+      <c r="M5" s="18"/>
       <c r="N5" s="18" t="n">
         <v>1</v>
       </c>
@@ -4789,7 +4787,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="18" t="n">
-        <v>0.0639</v>
+        <v>0.0617</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -4850,7 +4848,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="18" t="n">
-        <v>0.0639</v>
+        <v>0.0617</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -4911,7 +4909,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="18" t="n">
-        <v>0.0639</v>
+        <v>0.0617</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -4935,37 +4933,37 @@
         <v>0</v>
       </c>
       <c r="M8" s="18" t="n">
-        <v>0.0127833333333333</v>
+        <v>0</v>
       </c>
       <c r="N8" s="18" t="n">
-        <v>0.03835</v>
+        <v>0.0429</v>
       </c>
       <c r="O8" s="18" t="n">
-        <v>0.0127833333333333</v>
+        <v>0.0102833333333333</v>
       </c>
       <c r="P8" s="18" t="n">
-        <v>0.0127833333333333</v>
+        <v>0.0102833333333333</v>
       </c>
       <c r="Q8" s="18" t="n">
-        <v>0.0127833333333333</v>
+        <v>0.0102833333333333</v>
       </c>
       <c r="R8" s="18" t="n">
-        <v>0.03835</v>
+        <v>0.03085</v>
       </c>
       <c r="S8" s="18" t="n">
-        <v>0.0127833333333333</v>
+        <v>0.0102833333333333</v>
       </c>
       <c r="T8" s="18" t="n">
-        <v>0.0127833333333333</v>
+        <v>0.0102833333333333</v>
       </c>
       <c r="U8" s="18" t="n">
-        <v>0.0127833333333333</v>
+        <v>0.0102833333333333</v>
       </c>
       <c r="V8" s="18" t="n">
-        <v>0.03835</v>
+        <v>0.03085</v>
       </c>
       <c r="W8" s="18" t="n">
-        <v>0.1534</v>
+        <v>0.1234</v>
       </c>
     </row>
   </sheetData>
@@ -5067,7 +5065,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="19" t="n">
-        <v>0.0379</v>
+        <v>0.038</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5138,7 +5136,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="19" t="n">
-        <v>0.0379</v>
+        <v>0.038</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5209,7 +5207,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="19" t="n">
-        <v>0.0379</v>
+        <v>0.038</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5233,37 +5231,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="19" t="n">
-        <v>0.00758333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="19" t="n">
-        <v>0.02275</v>
+        <v>0</v>
       </c>
       <c r="O4" s="19" t="n">
-        <v>0.00758333333333333</v>
+        <v>0.00633333333333333</v>
       </c>
       <c r="P4" s="19" t="n">
-        <v>0.00758333333333333</v>
+        <v>0.00633333333333333</v>
       </c>
       <c r="Q4" s="19" t="n">
-        <v>0.00758333333333333</v>
+        <v>0.00633333333333333</v>
       </c>
       <c r="R4" s="19" t="n">
-        <v>0.02275</v>
+        <v>0.019</v>
       </c>
       <c r="S4" s="19" t="n">
-        <v>0.00758333333333333</v>
+        <v>0.00633333333333333</v>
       </c>
       <c r="T4" s="19" t="n">
-        <v>0.00758333333333333</v>
+        <v>0.00633333333333333</v>
       </c>
       <c r="U4" s="19" t="n">
-        <v>0.00758333333333333</v>
+        <v>0.00633333333333333</v>
       </c>
       <c r="V4" s="19" t="n">
-        <v>0.02275</v>
+        <v>0.019</v>
       </c>
       <c r="W4" s="19" t="n">
-        <v>0.091</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="5">
@@ -5409,12 +5407,8 @@
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
-      <c r="M7" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="19" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
       <c r="O7" s="19" t="n">
         <v>1</v>
       </c>
@@ -5623,37 +5617,37 @@
         <v>0.0233</v>
       </c>
       <c r="M10" s="19" t="n">
-        <v>0.00465833333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="19" t="n">
-        <v>0.013975</v>
+        <v>0.0231</v>
       </c>
       <c r="O10" s="19" t="n">
-        <v>0.00465833333333333</v>
+        <v>0.00388333333333333</v>
       </c>
       <c r="P10" s="19" t="n">
-        <v>0.00465833333333333</v>
+        <v>0.00388333333333333</v>
       </c>
       <c r="Q10" s="19" t="n">
-        <v>0.00465833333333333</v>
+        <v>0.00388333333333333</v>
       </c>
       <c r="R10" s="19" t="n">
-        <v>0.013975</v>
+        <v>0.01165</v>
       </c>
       <c r="S10" s="19" t="n">
-        <v>0.00465833333333333</v>
+        <v>0.00388333333333333</v>
       </c>
       <c r="T10" s="19" t="n">
-        <v>0.00465833333333333</v>
+        <v>0.00388333333333333</v>
       </c>
       <c r="U10" s="19" t="n">
-        <v>0.00465833333333333</v>
+        <v>0.00388333333333333</v>
       </c>
       <c r="V10" s="19" t="n">
-        <v>0.013975</v>
+        <v>0.01165</v>
       </c>
       <c r="W10" s="19" t="n">
-        <v>0.0559</v>
+        <v>0.0466</v>
       </c>
     </row>
   </sheetData>
@@ -8117,37 +8111,37 @@
         <v>0.0058</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>0.00464166666666667</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>0.013925</v>
+        <v>0.0116</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>0.00464166666666667</v>
+        <v>0.00386666666666667</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>0.00464166666666667</v>
+        <v>0.00386666666666667</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>0.00464166666666667</v>
+        <v>0.00386666666666667</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>0.013925</v>
+        <v>0.0116</v>
       </c>
       <c r="S9" s="3" t="n">
-        <v>0.00464166666666667</v>
+        <v>0.00386666666666667</v>
       </c>
       <c r="T9" s="3" t="n">
-        <v>0.00464166666666667</v>
+        <v>0.00386666666666667</v>
       </c>
       <c r="U9" s="3" t="n">
-        <v>0.00464166666666667</v>
+        <v>0.00386666666666667</v>
       </c>
       <c r="V9" s="3" t="n">
-        <v>0.013925</v>
+        <v>0.0116</v>
       </c>
       <c r="W9" s="3" t="n">
-        <v>0.0557</v>
+        <v>0.0464</v>
       </c>
     </row>
   </sheetData>
@@ -8249,7 +8243,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.0286</v>
+        <v>0.0294</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -8320,7 +8314,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.0286</v>
+        <v>0.0294</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -8391,13 +8385,13 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.0286</v>
+        <v>0.0294</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.0286</v>
+        <v>0.0294</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>0</v>
@@ -8406,7 +8400,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.0286</v>
+        <v>0.0294</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>0</v>
@@ -8415,37 +8409,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.00571666666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.01715</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.00571666666666667</v>
+        <v>0.0049</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.00571666666666667</v>
+        <v>0.0049</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.00571666666666667</v>
+        <v>0.0049</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01715</v>
+        <v>0.0147</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.00571666666666667</v>
+        <v>0.0049</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.00571666666666667</v>
+        <v>0.0049</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.00571666666666667</v>
+        <v>0.0049</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.01715</v>
+        <v>0.0147</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.0686</v>
+        <v>0.0588</v>
       </c>
     </row>
     <row r="5">
@@ -8643,7 +8637,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.078</v>
+        <v>0.0864</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -8714,7 +8708,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.078</v>
+        <v>0.0864</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -8785,7 +8779,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0.078</v>
+        <v>0.0864</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -8809,37 +8803,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>0.0156</v>
+        <v>0.0081</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>0.0468</v>
+        <v>0.024</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>0.0156</v>
+        <v>0.0144</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>0.0156</v>
+        <v>0.0144</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0.0156</v>
+        <v>0.0144</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.0468</v>
+        <v>0.0432</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.0156</v>
+        <v>0.0144</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>0.0156</v>
+        <v>0.0144</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>0.0156</v>
+        <v>0.0144</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>0.0468</v>
+        <v>0.0432</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>0.1872</v>
+        <v>0.1728</v>
       </c>
     </row>
   </sheetData>
@@ -9153,7 +9147,9 @@
       <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="n">
+        <v>0.5</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -9202,7 +9198,9 @@
       <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="n">
+        <v>0.5</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -9269,64 +9267,52 @@
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>0.0588</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>0.0588</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P7" s="5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U7" s="5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V7" s="5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W7" s="5" t="n">
-        <v>0.0503</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -9346,10 +9332,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05292</v>
+        <v>0.0588</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
@@ -9358,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05292</v>
+        <v>0.0588</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
@@ -9397,7 +9383,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="5" t="n">
-        <v>0.04527</v>
+        <v>0.0503</v>
       </c>
     </row>
     <row r="9">
@@ -9417,57 +9403,128 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.05292</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.05292</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5" t="n">
+        <v>0.04527</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="5" t="n">
+      <c r="G10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10081,7 +10138,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0.1546</v>
+        <v>0.2162</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -10152,7 +10209,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.1546</v>
+        <v>0.2162</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -10223,7 +10280,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.1546</v>
+        <v>0.2162</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -10244,40 +10301,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="7" t="n">
-        <v>0.1765</v>
+        <v>0.1667</v>
       </c>
       <c r="M4" s="7" t="n">
-        <v>0.0309166666666667</v>
+        <v>0.0588</v>
       </c>
       <c r="N4" s="7" t="n">
-        <v>0.09275</v>
+        <v>0.2222</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.0309166666666667</v>
+        <v>0.0360333333333333</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.0309166666666667</v>
+        <v>0.0360333333333333</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.0309166666666667</v>
+        <v>0.0360333333333333</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.09275</v>
+        <v>0.1081</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.0309166666666667</v>
+        <v>0.0360333333333333</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.0309166666666667</v>
+        <v>0.0360333333333333</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.0309166666666667</v>
+        <v>0.0360333333333333</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.09275</v>
+        <v>0.1081</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0.371</v>
+        <v>0.4324</v>
       </c>
     </row>
     <row r="5">
@@ -10497,7 +10554,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0.0382</v>
+        <v>0.0631</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -10568,7 +10625,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0.0382</v>
+        <v>0.0631</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -10639,61 +10696,61 @@
         <v>26</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0.0382</v>
+        <v>0.0631</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="8" t="n">
-        <v>0</v>
+        <v>0.0127</v>
       </c>
       <c r="H4" s="8" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="8" t="n">
-        <v>0.0256</v>
+        <v>0.0253</v>
       </c>
       <c r="J4" s="8" t="n">
-        <v>0.0253</v>
+        <v>0.0375</v>
       </c>
       <c r="K4" s="8" t="n">
+        <v>0.0127</v>
+      </c>
+      <c r="L4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8" t="n">
         <v>0.0128</v>
       </c>
-      <c r="L4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8" t="n">
-        <v>0.00764166666666667</v>
-      </c>
       <c r="N4" s="8" t="n">
-        <v>0.022925</v>
+        <v>0.0254</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0.00764166666666667</v>
+        <v>0.0105166666666667</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0.00764166666666667</v>
+        <v>0.0105166666666667</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0.00764166666666667</v>
+        <v>0.0105166666666667</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0.022925</v>
+        <v>0.03155</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0.00764166666666667</v>
+        <v>0.0105166666666667</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0.00764166666666667</v>
+        <v>0.0105166666666667</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0.00764166666666667</v>
+        <v>0.0105166666666667</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0.022925</v>
+        <v>0.03155</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0.0917</v>
+        <v>0.1262</v>
       </c>
     </row>
     <row r="5">
@@ -10710,7 +10767,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="8" t="n">
-        <v>0.333333333333333</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -10775,7 +10832,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="8" t="n">
-        <v>0.333333333333333</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -10846,7 +10903,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>0.333333333333333</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -10866,37 +10923,37 @@
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8" t="n">
-        <v>0.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="N7" s="8" t="n">
-        <v>0.333333333333333</v>
+        <v>0.6667</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.333333333333333</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.333333333333333</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="Q7" s="8" t="n">
-        <v>0.333333333333333</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="R7" s="8" t="n">
-        <v>0.333333333333333</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="S7" s="8" t="n">
-        <v>0.333333333333333</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="T7" s="8" t="n">
-        <v>0.333333333333333</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="U7" s="8" t="n">
-        <v>0.333333333333333</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="V7" s="8" t="n">
-        <v>0.333333333333333</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="W7" s="8" t="n">
-        <v>0.333333333333333</v>
+        <v>0.428571428571429</v>
       </c>
     </row>
     <row r="8">
@@ -10913,7 +10970,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>0.0601</v>
+        <v>0.0788</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -10984,7 +11041,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="8" t="n">
-        <v>0.0601</v>
+        <v>0.0788</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -11055,13 +11112,13 @@
         <v>31</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>0.0601</v>
+        <v>0.0788</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="8" t="n">
-        <v>0.0242</v>
+        <v>0.022</v>
       </c>
       <c r="H10" s="8" t="n">
         <v>0.004</v>
@@ -11070,7 +11127,7 @@
         <v>0.0169</v>
       </c>
       <c r="J10" s="8" t="n">
-        <v>0.0444</v>
+        <v>0.0424</v>
       </c>
       <c r="K10" s="8" t="n">
         <v>0.0112</v>
@@ -11079,37 +11136,37 @@
         <v>0.0054</v>
       </c>
       <c r="M10" s="8" t="n">
-        <v>0.0120166666666667</v>
+        <v>0.0203</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.03605</v>
+        <v>0.0367</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.0120166666666667</v>
+        <v>0.0131333333333333</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>0.0120166666666667</v>
+        <v>0.0131333333333333</v>
       </c>
       <c r="Q10" s="8" t="n">
-        <v>0.0120166666666667</v>
+        <v>0.0131333333333333</v>
       </c>
       <c r="R10" s="8" t="n">
-        <v>0.03605</v>
+        <v>0.0394</v>
       </c>
       <c r="S10" s="8" t="n">
-        <v>0.0120166666666667</v>
+        <v>0.0131333333333333</v>
       </c>
       <c r="T10" s="8" t="n">
-        <v>0.0120166666666667</v>
+        <v>0.0131333333333333</v>
       </c>
       <c r="U10" s="8" t="n">
-        <v>0.0120166666666667</v>
+        <v>0.0131333333333333</v>
       </c>
       <c r="V10" s="8" t="n">
-        <v>0.03605</v>
+        <v>0.0394</v>
       </c>
       <c r="W10" s="8" t="n">
-        <v>0.1442</v>
+        <v>0.1576</v>
       </c>
     </row>
   </sheetData>
@@ -11211,7 +11268,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>0.3571</v>
+        <v>0.3704</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11282,7 +11339,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0.3571</v>
+        <v>0.3704</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11353,7 +11410,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0.3571</v>
+        <v>0.3704</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11377,37 +11434,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="9" t="n">
-        <v>0.0714166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>0.21425</v>
+        <v>0.4348</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0.21425</v>
+        <v>0.1852</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0.0714166666666667</v>
+        <v>0.0617333333333333</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0.21425</v>
+        <v>0.1852</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>0.857</v>
+        <v>0.7408</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_IPS Industrial Components Division.xlsx
+++ b/outputs/SORs/SOR Testing_IPS Industrial Components Division.xlsx
@@ -664,7 +664,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.087</v>
+        <v>0.0985</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -735,7 +735,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.087</v>
+        <v>0.0985</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -806,7 +806,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.087</v>
+        <v>0.0985</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -836,31 +836,31 @@
         <v>0.0551</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.0145</v>
+        <v>0.0114</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.0145</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.0145</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.0435</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.0145</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.0145</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.0145</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.0435</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0.174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1030,9 +1030,7 @@
       <c r="N7" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="1" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="O7" s="1"/>
       <c r="P7" s="1" t="n">
         <v>0.4</v>
       </c>
@@ -1072,7 +1070,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.2564</v>
+        <v>0.2872</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1143,7 +1141,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.2564</v>
+        <v>0.2872</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1214,22 +1212,22 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.2564</v>
+        <v>0.2872</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>0.0233</v>
+        <v>0.0234</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>0.0585</v>
+        <v>0.0586</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>0.0542</v>
+        <v>0.0543</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>0.1369</v>
+        <v>0.1372</v>
       </c>
       <c r="K10" s="1" t="n">
         <v>0.0516</v>
@@ -1238,37 +1236,37 @@
         <v>0.0409</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>0.0266</v>
+        <v>0.0287</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>0.1195</v>
+        <v>0.1215</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>0.0427333333333333</v>
+        <v>0.0286</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>0.0427333333333333</v>
+        <v>0.041025</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>0.0427333333333333</v>
+        <v>0.041025</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0.1282</v>
+        <v>0.123075</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0.0427333333333333</v>
+        <v>0.041025</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0.0427333333333333</v>
+        <v>0.041025</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.0427333333333333</v>
+        <v>0.041025</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.1282</v>
+        <v>0.123075</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0.5128</v>
+        <v>0.4923</v>
       </c>
     </row>
   </sheetData>
@@ -1693,7 +1691,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>0.0855</v>
+        <v>0.0862</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1764,7 +1762,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="10" t="n">
-        <v>0.0855</v>
+        <v>0.0862</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1835,7 +1833,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="10" t="n">
-        <v>0.0855</v>
+        <v>0.0862</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -1865,31 +1863,31 @@
         <v>0.0855</v>
       </c>
       <c r="O9" s="10" t="n">
-        <v>0.01425</v>
+        <v>0</v>
       </c>
       <c r="P9" s="10" t="n">
-        <v>0.01425</v>
+        <v>0.0123166666666667</v>
       </c>
       <c r="Q9" s="10" t="n">
-        <v>0.01425</v>
+        <v>0.0123166666666667</v>
       </c>
       <c r="R9" s="10" t="n">
-        <v>0.04275</v>
+        <v>0.03695</v>
       </c>
       <c r="S9" s="10" t="n">
-        <v>0.01425</v>
+        <v>0.0123166666666667</v>
       </c>
       <c r="T9" s="10" t="n">
-        <v>0.01425</v>
+        <v>0.0123166666666667</v>
       </c>
       <c r="U9" s="10" t="n">
-        <v>0.01425</v>
+        <v>0.0123166666666667</v>
       </c>
       <c r="V9" s="10" t="n">
-        <v>0.04275</v>
+        <v>0.03695</v>
       </c>
       <c r="W9" s="10" t="n">
-        <v>0.171</v>
+        <v>0.1478</v>
       </c>
     </row>
   </sheetData>
@@ -2289,7 +2287,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="12" t="n">
-        <v>0.1124</v>
+        <v>0.1367</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2360,7 +2358,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="12" t="n">
-        <v>0.1124</v>
+        <v>0.1367</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2431,13 +2429,13 @@
         <v>26</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0.1124</v>
+        <v>0.1367</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="12" t="n">
-        <v>0.0455</v>
+        <v>0.0465</v>
       </c>
       <c r="H4" s="12" t="n">
         <v>0</v>
@@ -2446,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="12" t="n">
-        <v>0.0447</v>
+        <v>0.0458</v>
       </c>
       <c r="K4" s="12" t="n">
         <v>0</v>
@@ -2458,34 +2456,34 @@
         <v>0</v>
       </c>
       <c r="N4" s="12" t="n">
-        <v>0.0677</v>
+        <v>0.0682</v>
       </c>
       <c r="O4" s="12" t="n">
-        <v>0.0187333333333333</v>
+        <v>0.0227</v>
       </c>
       <c r="P4" s="12" t="n">
-        <v>0.0187333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="12" t="n">
-        <v>0.0187333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="12" t="n">
-        <v>0.0562</v>
+        <v>0</v>
       </c>
       <c r="S4" s="12" t="n">
-        <v>0.0187333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="12" t="n">
-        <v>0.0187333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="12" t="n">
-        <v>0.0187333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="12" t="n">
-        <v>0.0562</v>
+        <v>0</v>
       </c>
       <c r="W4" s="12" t="n">
-        <v>0.2248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2657,9 +2655,7 @@
       <c r="N7" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="12" t="n">
-        <v>0.428571428571429</v>
-      </c>
+      <c r="O7" s="12"/>
       <c r="P7" s="12" t="n">
         <v>0.428571428571429</v>
       </c>
@@ -3806,7 +3802,9 @@
       <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -3849,7 +3847,9 @@
       <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -3916,64 +3916,48 @@
         <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="16" t="n">
-        <v>0.0102</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="16" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H7" s="16" t="n">
-        <v>0.0426</v>
-      </c>
-      <c r="I7" s="16" t="n">
-        <v>0.0211</v>
-      </c>
-      <c r="J7" s="16" t="n">
-        <v>0.1038</v>
-      </c>
-      <c r="K7" s="16" t="n">
-        <v>0.0106</v>
-      </c>
-      <c r="L7" s="16" t="n">
-        <v>0.0202</v>
-      </c>
-      <c r="M7" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="16" t="n">
-        <v>0.0309</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
       <c r="O7" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="16" t="n">
-        <v>0.0485</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="16" t="n">
-        <v>0.0482</v>
+        <v>1</v>
       </c>
       <c r="S7" s="16" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="T7" s="16" t="n">
-        <v>0.0102</v>
+        <v>1</v>
       </c>
       <c r="U7" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="16" t="n">
-        <v>0.0203</v>
+        <v>1</v>
       </c>
       <c r="W7" s="16" t="n">
-        <v>0.2024</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -3990,61 +3974,61 @@
         <v>31</v>
       </c>
       <c r="E8" s="16" t="n">
+        <v>0.0101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="16" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H8" s="16" t="n">
+        <v>0.0426</v>
+      </c>
+      <c r="I8" s="16" t="n">
+        <v>0.0211</v>
+      </c>
+      <c r="J8" s="16" t="n">
+        <v>0.1038</v>
+      </c>
+      <c r="K8" s="16" t="n">
+        <v>0.0106</v>
+      </c>
+      <c r="L8" s="16" t="n">
+        <v>0.0202</v>
+      </c>
+      <c r="M8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16" t="n">
+        <v>0.0309</v>
+      </c>
+      <c r="O8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16" t="n">
+        <v>0.0485</v>
+      </c>
+      <c r="Q8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="16" t="n">
+        <v>0.0482</v>
+      </c>
+      <c r="S8" s="16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T8" s="16" t="n">
         <v>0.0102</v>
       </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="16" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="H8" s="16" t="n">
-        <v>0.03834</v>
-      </c>
-      <c r="I8" s="16" t="n">
-        <v>0.01899</v>
-      </c>
-      <c r="J8" s="16" t="n">
-        <v>0.09342</v>
-      </c>
-      <c r="K8" s="16" t="n">
-        <v>0.00954</v>
-      </c>
-      <c r="L8" s="16" t="n">
-        <v>0.01818</v>
-      </c>
-      <c r="M8" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="16" t="n">
-        <v>0.02781</v>
-      </c>
-      <c r="O8" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="16" t="n">
-        <v>0.04365</v>
-      </c>
-      <c r="Q8" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="16" t="n">
-        <v>0.04338</v>
-      </c>
-      <c r="S8" s="16" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="T8" s="16" t="n">
-        <v>0.00918</v>
-      </c>
       <c r="U8" s="16" t="n">
         <v>0</v>
       </c>
       <c r="V8" s="16" t="n">
-        <v>0.01827</v>
+        <v>0.0203</v>
       </c>
       <c r="W8" s="16" t="n">
-        <v>0.18216</v>
+        <v>0.2024</v>
       </c>
     </row>
     <row r="9">
@@ -4061,61 +4045,132 @@
         <v>31</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>0.0102</v>
+        <v>0.0101</v>
       </c>
       <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="16" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="H9" s="16" t="n">
+        <v>0.03834</v>
+      </c>
+      <c r="I9" s="16" t="n">
+        <v>0.01899</v>
+      </c>
+      <c r="J9" s="16" t="n">
+        <v>0.09342</v>
+      </c>
+      <c r="K9" s="16" t="n">
+        <v>0.00954</v>
+      </c>
+      <c r="L9" s="16" t="n">
+        <v>0.01818</v>
+      </c>
+      <c r="M9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="16" t="n">
+        <v>0.02781</v>
+      </c>
+      <c r="O9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16" t="n">
+        <v>0.04365</v>
+      </c>
+      <c r="Q9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16" t="n">
+        <v>0.04338</v>
+      </c>
+      <c r="S9" s="16" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="T9" s="16" t="n">
+        <v>0.00918</v>
+      </c>
+      <c r="U9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="16" t="n">
+        <v>0.01827</v>
+      </c>
+      <c r="W9" s="16" t="n">
+        <v>0.18216</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="16" t="n">
+        <v>0.0101</v>
+      </c>
+      <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="16" t="n">
+      <c r="G10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="16" t="n">
         <v>0.0103</v>
       </c>
-      <c r="J9" s="16" t="n">
+      <c r="J10" s="16" t="n">
         <v>0.0104</v>
       </c>
-      <c r="K9" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="16" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="P9" s="16" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="Q9" s="16" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="R9" s="16" t="n">
-        <v>0.0051</v>
-      </c>
-      <c r="S9" s="16" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="T9" s="16" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="U9" s="16" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="V9" s="16" t="n">
-        <v>0.0051</v>
-      </c>
-      <c r="W9" s="16" t="n">
-        <v>0.0204</v>
+      <c r="K10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16" t="n">
+        <v>0.00144166666666667</v>
+      </c>
+      <c r="Q10" s="16" t="n">
+        <v>0.00144166666666667</v>
+      </c>
+      <c r="R10" s="16" t="n">
+        <v>0.004325</v>
+      </c>
+      <c r="S10" s="16" t="n">
+        <v>0.00144166666666667</v>
+      </c>
+      <c r="T10" s="16" t="n">
+        <v>0.00144166666666667</v>
+      </c>
+      <c r="U10" s="16" t="n">
+        <v>0.00144166666666667</v>
+      </c>
+      <c r="V10" s="16" t="n">
+        <v>0.004325</v>
+      </c>
+      <c r="W10" s="16" t="n">
+        <v>0.0173</v>
       </c>
     </row>
   </sheetData>
@@ -4416,6 +4471,61 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="17" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -4745,9 +4855,7 @@
       <c r="N5" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="O5" s="18" t="n">
-        <v>1</v>
-      </c>
+      <c r="O5" s="18"/>
       <c r="P5" s="18" t="n">
         <v>1</v>
       </c>
@@ -4787,7 +4895,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="18" t="n">
-        <v>0.0617</v>
+        <v>0.0429</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -4848,7 +4956,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="18" t="n">
-        <v>0.0617</v>
+        <v>0.0429</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -4909,7 +5017,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="18" t="n">
-        <v>0.0617</v>
+        <v>0.0429</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -4921,13 +5029,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="18" t="n">
-        <v>0.0159</v>
+        <v>0</v>
       </c>
       <c r="J8" s="18" t="n">
-        <v>0.0168</v>
+        <v>0</v>
       </c>
       <c r="K8" s="18" t="n">
-        <v>0.0448</v>
+        <v>0.0435</v>
       </c>
       <c r="L8" s="18" t="n">
         <v>0</v>
@@ -4936,34 +5044,34 @@
         <v>0</v>
       </c>
       <c r="N8" s="18" t="n">
-        <v>0.0429</v>
+        <v>0.0411</v>
       </c>
       <c r="O8" s="18" t="n">
-        <v>0.0102833333333333</v>
+        <v>0</v>
       </c>
       <c r="P8" s="18" t="n">
-        <v>0.0102833333333333</v>
+        <v>0.006125</v>
       </c>
       <c r="Q8" s="18" t="n">
-        <v>0.0102833333333333</v>
+        <v>0.006125</v>
       </c>
       <c r="R8" s="18" t="n">
-        <v>0.03085</v>
+        <v>0.018375</v>
       </c>
       <c r="S8" s="18" t="n">
-        <v>0.0102833333333333</v>
+        <v>0.006125</v>
       </c>
       <c r="T8" s="18" t="n">
-        <v>0.0102833333333333</v>
+        <v>0.006125</v>
       </c>
       <c r="U8" s="18" t="n">
-        <v>0.0102833333333333</v>
+        <v>0.006125</v>
       </c>
       <c r="V8" s="18" t="n">
-        <v>0.03085</v>
+        <v>0.018375</v>
       </c>
       <c r="W8" s="18" t="n">
-        <v>0.1234</v>
+        <v>0.0735</v>
       </c>
     </row>
   </sheetData>
@@ -5065,7 +5173,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="19" t="n">
-        <v>0.038</v>
+        <v>0.0379</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5136,7 +5244,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="19" t="n">
-        <v>0.038</v>
+        <v>0.0379</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5207,7 +5315,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="19" t="n">
-        <v>0.038</v>
+        <v>0.0379</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5237,31 +5345,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="19" t="n">
-        <v>0.00633333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="19" t="n">
-        <v>0.00633333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="19" t="n">
-        <v>0.00633333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="19" t="n">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="S4" s="19" t="n">
-        <v>0.00633333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="19" t="n">
-        <v>0.00633333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="19" t="n">
-        <v>0.00633333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="19" t="n">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="W4" s="19" t="n">
-        <v>0.076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5278,7 +5386,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -5321,7 +5429,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -5392,7 +5500,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -5410,31 +5518,31 @@
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
       <c r="O7" s="19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" s="19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R7" s="19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S7" s="19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T7" s="19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U7" s="19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V7" s="19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W7" s="19" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -5623,31 +5731,31 @@
         <v>0.0231</v>
       </c>
       <c r="O10" s="19" t="n">
-        <v>0.00388333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="19" t="n">
-        <v>0.00388333333333333</v>
+        <v>0.003325</v>
       </c>
       <c r="Q10" s="19" t="n">
-        <v>0.00388333333333333</v>
+        <v>0.003325</v>
       </c>
       <c r="R10" s="19" t="n">
-        <v>0.01165</v>
+        <v>0.009975</v>
       </c>
       <c r="S10" s="19" t="n">
-        <v>0.00388333333333333</v>
+        <v>0.003325</v>
       </c>
       <c r="T10" s="19" t="n">
-        <v>0.00388333333333333</v>
+        <v>0.003325</v>
       </c>
       <c r="U10" s="19" t="n">
-        <v>0.00388333333333333</v>
+        <v>0.003325</v>
       </c>
       <c r="V10" s="19" t="n">
-        <v>0.01165</v>
+        <v>0.009975</v>
       </c>
       <c r="W10" s="19" t="n">
-        <v>0.0466</v>
+        <v>0.0399</v>
       </c>
     </row>
   </sheetData>
@@ -6374,7 +6482,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="20" t="n">
-        <v>0</v>
+        <v>0.0281</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -6445,7 +6553,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="20" t="n">
-        <v>0</v>
+        <v>0.0281</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -6516,7 +6624,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="20" t="n">
-        <v>0</v>
+        <v>0.0281</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -6537,40 +6645,40 @@
         <v>0</v>
       </c>
       <c r="L7" s="20" t="n">
-        <v>0</v>
+        <v>0.0286</v>
       </c>
       <c r="M7" s="20" t="n">
         <v>0</v>
       </c>
       <c r="N7" s="20" t="n">
-        <v>0</v>
+        <v>0.0283</v>
       </c>
       <c r="O7" s="20" t="n">
         <v>0</v>
       </c>
       <c r="P7" s="20" t="n">
-        <v>0</v>
+        <v>0.00401666666666667</v>
       </c>
       <c r="Q7" s="20" t="n">
-        <v>0</v>
+        <v>0.00401666666666667</v>
       </c>
       <c r="R7" s="20" t="n">
-        <v>0</v>
+        <v>0.01205</v>
       </c>
       <c r="S7" s="20" t="n">
-        <v>0</v>
+        <v>0.00401666666666667</v>
       </c>
       <c r="T7" s="20" t="n">
-        <v>0</v>
+        <v>0.00401666666666667</v>
       </c>
       <c r="U7" s="20" t="n">
-        <v>0</v>
+        <v>0.00401666666666667</v>
       </c>
       <c r="V7" s="20" t="n">
-        <v>0</v>
+        <v>0.01205</v>
       </c>
       <c r="W7" s="20" t="n">
-        <v>0</v>
+        <v>0.0482</v>
       </c>
     </row>
   </sheetData>
@@ -8117,31 +8225,31 @@
         <v>0.0116</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>0.00386666666666667</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>0.00386666666666667</v>
+        <v>0.00331666666666667</v>
       </c>
       <c r="Q9" s="3" t="n">
-        <v>0.00386666666666667</v>
+        <v>0.00331666666666667</v>
       </c>
       <c r="R9" s="3" t="n">
-        <v>0.0116</v>
+        <v>0.00995</v>
       </c>
       <c r="S9" s="3" t="n">
-        <v>0.00386666666666667</v>
+        <v>0.00331666666666667</v>
       </c>
       <c r="T9" s="3" t="n">
-        <v>0.00386666666666667</v>
+        <v>0.00331666666666667</v>
       </c>
       <c r="U9" s="3" t="n">
-        <v>0.00386666666666667</v>
+        <v>0.00331666666666667</v>
       </c>
       <c r="V9" s="3" t="n">
-        <v>0.0116</v>
+        <v>0.00995</v>
       </c>
       <c r="W9" s="3" t="n">
-        <v>0.0464</v>
+        <v>0.0398</v>
       </c>
     </row>
   </sheetData>
@@ -8415,31 +8523,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.0049</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.0049</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.0049</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.0147</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.0049</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.0049</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.0049</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.0147</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.0588</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -8595,9 +8703,7 @@
       <c r="N7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="4"/>
       <c r="P7" s="4" t="n">
         <v>1</v>
       </c>
@@ -8637,7 +8743,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.0864</v>
+        <v>0.0947</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -8708,7 +8814,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.0864</v>
+        <v>0.0947</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -8779,7 +8885,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0.0864</v>
+        <v>0.0947</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -8809,31 +8915,31 @@
         <v>0.024</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>0.0144</v>
+        <v>0.0081</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>0.0144</v>
+        <v>0.013525</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0.0144</v>
+        <v>0.013525</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.0432</v>
+        <v>0.040575</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.0144</v>
+        <v>0.013525</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>0.0144</v>
+        <v>0.013525</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>0.0144</v>
+        <v>0.013525</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>0.0432</v>
+        <v>0.040575</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>0.1728</v>
+        <v>0.1623</v>
       </c>
     </row>
   </sheetData>
@@ -9148,7 +9254,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -9199,7 +9305,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -9270,7 +9376,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -9288,31 +9394,31 @@
         <v>0.5</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P7" s="5" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="U7" s="5" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="V7" s="5" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="W7" s="5" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8">
@@ -9840,7 +9946,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0</v>
+        <v>0.0565</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -9911,7 +10017,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0</v>
+        <v>0.0565</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -9982,7 +10088,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0</v>
+        <v>0.0565</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -10012,31 +10118,31 @@
         <v>0</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0</v>
+        <v>0.0556</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0</v>
+        <v>0.008075</v>
       </c>
       <c r="Q7" s="6" t="n">
-        <v>0</v>
+        <v>0.008075</v>
       </c>
       <c r="R7" s="6" t="n">
-        <v>0</v>
+        <v>0.024225</v>
       </c>
       <c r="S7" s="6" t="n">
-        <v>0</v>
+        <v>0.008075</v>
       </c>
       <c r="T7" s="6" t="n">
-        <v>0</v>
+        <v>0.008075</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0</v>
+        <v>0.008075</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0</v>
+        <v>0.024225</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0</v>
+        <v>0.0969</v>
       </c>
     </row>
   </sheetData>
@@ -10138,7 +10244,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="7" t="n">
-        <v>0.2162</v>
+        <v>0.2186</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -10209,7 +10315,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.2162</v>
+        <v>0.2186</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -10280,7 +10386,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.2162</v>
+        <v>0.2186</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -10310,31 +10416,31 @@
         <v>0.2222</v>
       </c>
       <c r="O4" s="7" t="n">
-        <v>0.0360333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="7" t="n">
-        <v>0.0360333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="7" t="n">
-        <v>0.0360333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="7" t="n">
-        <v>0.1081</v>
+        <v>0</v>
       </c>
       <c r="S4" s="7" t="n">
-        <v>0.0360333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>0.0360333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="7" t="n">
-        <v>0.0360333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="7" t="n">
-        <v>0.1081</v>
+        <v>0</v>
       </c>
       <c r="W4" s="7" t="n">
-        <v>0.4324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -10554,7 +10660,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0.0631</v>
+        <v>0.0886</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -10625,7 +10731,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0.0631</v>
+        <v>0.0886</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -10696,7 +10802,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0.0631</v>
+        <v>0.0886</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -10726,31 +10832,31 @@
         <v>0.0254</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0.0105166666666667</v>
+        <v>0.026</v>
       </c>
       <c r="P4" s="8" t="n">
-        <v>0.0105166666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="8" t="n">
-        <v>0.0105166666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="8" t="n">
-        <v>0.03155</v>
+        <v>0</v>
       </c>
       <c r="S4" s="8" t="n">
-        <v>0.0105166666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="8" t="n">
-        <v>0.0105166666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="8" t="n">
-        <v>0.0105166666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0.03155</v>
+        <v>0</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0.1262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -10767,7 +10873,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="8" t="n">
-        <v>0.428571428571429</v>
+        <v>0.375</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -10832,7 +10938,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="8" t="n">
-        <v>0.428571428571429</v>
+        <v>0.375</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -10903,7 +11009,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="8" t="n">
-        <v>0.428571428571429</v>
+        <v>0.375</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -10929,31 +11035,31 @@
         <v>0.6667</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>0.428571428571429</v>
+        <v>0</v>
       </c>
       <c r="P7" s="8" t="n">
-        <v>0.428571428571429</v>
+        <v>0.375</v>
       </c>
       <c r="Q7" s="8" t="n">
-        <v>0.428571428571429</v>
+        <v>0.375</v>
       </c>
       <c r="R7" s="8" t="n">
-        <v>0.428571428571429</v>
+        <v>0.375</v>
       </c>
       <c r="S7" s="8" t="n">
-        <v>0.428571428571429</v>
+        <v>0.375</v>
       </c>
       <c r="T7" s="8" t="n">
-        <v>0.428571428571429</v>
+        <v>0.375</v>
       </c>
       <c r="U7" s="8" t="n">
-        <v>0.428571428571429</v>
+        <v>0.375</v>
       </c>
       <c r="V7" s="8" t="n">
-        <v>0.428571428571429</v>
+        <v>0.375</v>
       </c>
       <c r="W7" s="8" t="n">
-        <v>0.428571428571429</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="8">
@@ -10970,7 +11076,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="8" t="n">
-        <v>0.0788</v>
+        <v>0.0902</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -11041,7 +11147,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="8" t="n">
-        <v>0.0788</v>
+        <v>0.0902</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -11112,7 +11218,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="8" t="n">
-        <v>0.0788</v>
+        <v>0.0902</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -11142,31 +11248,31 @@
         <v>0.0367</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.0131333333333333</v>
+        <v>0.0114</v>
       </c>
       <c r="P10" s="8" t="n">
-        <v>0.0131333333333333</v>
+        <v>0.0128833333333333</v>
       </c>
       <c r="Q10" s="8" t="n">
-        <v>0.0131333333333333</v>
+        <v>0.0128833333333333</v>
       </c>
       <c r="R10" s="8" t="n">
-        <v>0.0394</v>
+        <v>0.03865</v>
       </c>
       <c r="S10" s="8" t="n">
-        <v>0.0131333333333333</v>
+        <v>0.0128833333333333</v>
       </c>
       <c r="T10" s="8" t="n">
-        <v>0.0131333333333333</v>
+        <v>0.0128833333333333</v>
       </c>
       <c r="U10" s="8" t="n">
-        <v>0.0131333333333333</v>
+        <v>0.0128833333333333</v>
       </c>
       <c r="V10" s="8" t="n">
-        <v>0.0394</v>
+        <v>0.03865</v>
       </c>
       <c r="W10" s="8" t="n">
-        <v>0.1576</v>
+        <v>0.1546</v>
       </c>
     </row>
   </sheetData>
@@ -11268,7 +11374,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>0.3704</v>
+        <v>0.3846</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11339,7 +11445,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0.3704</v>
+        <v>0.3846</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11410,7 +11516,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0.3704</v>
+        <v>0.3846</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11440,31 +11546,31 @@
         <v>0.4348</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0.1852</v>
+        <v>0</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0.0617333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0.1852</v>
+        <v>0</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>0.7408</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
